--- a/Database_NLP_Lorenzo Cino.xlsx
+++ b/Database_NLP_Lorenzo Cino.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loryc\OneDrive\Desktop\magistrale\1 anno\natural language processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2907766A-29D0-408C-AEB3-7FB1F0CB5F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E65D4-AFD7-4281-9819-A97ABB946BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{029EE5B4-0AB5-488C-83BC-49559F09C4C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t xml:space="preserve">Because there is no greater pain for a man and woman in any country in the world than waking up in the morning and not being sure they can have a cup of coffee and put a butter sandwich under their teeth. There is no greater pain for a human being than to arrive at lunch and not have a plate of beans and almond meal to give to his child. There is nothing worse than the citizen who knows that he is unemployed and that at the end of the month he will not have the salary to support his family.
 </t>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>We need a new strategy for Russia, a new way of thinking about Russia. One that is not reactive, that Putin does something and we react and we do sanctions. We need to think about what we want to have happen in Russia, and we need to then — I’m not giving you policy prescriptions right now — but what do we want to have happen? And then work backwards and think about how do we want to get there? We need new forms of public diplomacy. We need ways of talking to Russians, we don’t have that anymore. There is still Radio Free Europe, Radio Liberty exists, but it’s very, very small. It’s very good by the way, it’s very well run, but it’s very small. It doesn’t have the reach that it could have. How do we reach people? Do we need to create a Russian language television station? How do we, not necessarily just through money, but how do we bump up support for Navalny and the other organizations that are working for change in Russia? And I don’t mean necessarily revolutionary change, but just mentality change. How do we start thinking about that at doing that? These are, as you know very well, these are things we could do in the past. We thought about them during the Cold War, and there’s no reason why we can’t begin to think of them again. In addition to that, the process of rooting corrupt Russian money out of all of our economies, and I mean America, Britain, France, Germany, Italy, Spain, Portugal, everybody, Austria, a big one, is going to be a long project out of the banking system. Eliminating the money laundering that enables Russians to steal money from their own country and then park it in the Cote d’Azur or in Knightsbridge. That has to end. We need to be very firm about ending it.</t>
-  </si>
-  <si>
-    <t>There’s lot of stuff for the Treasury to do and maybe Congress to do in terms of thinking really hard about how we eliminate Russian money and the influence that it buys actually, from our public life. You can see all over the airwaves that there is Russian influence in American media.
-You can see it in parts of the business community. If you look at just exactly how it was that Donald Trump kept afloat during all those years when he was bankrupt, he and his sons have said quite openly that part of that was Russians investing in Trump family properties, buying apartments in Trump buildings, using shell companies or anonymously owned companies in order to do that. So they knew a lot of their money was coming from Russia all the time.</t>
   </si>
   <si>
     <t>The original purpose of this meeting was completely diverted. They have imposed on us as the centrality of the debate an evil called reform process that relegates to the background what is
@@ -272,6 +268,112 @@
   </si>
   <si>
     <t xml:space="preserve"> Venezuela a few years ago decided to wage this battle within the United Nations by recognizing the United Nations, as members of it that we are, and lending it our voice, our thinking. Our voice is an independent voice to represent the dignity and the search for peace and the reformulation of the international system; to denounce persecution and aggression of hegemonic forces on the planet. This is how Venezuela has presented itself. Bolivar’s home has sought a nonpermanent seat on the Security Council.</t>
+  </si>
+  <si>
+    <t>There’s lot of stuff for the Treasury to do and maybe Congress to do in terms of thinking really hard about how we eliminate Russian money and the influence that it buys actually, from our public life. You can see all over the airwaves that there is Russian influence in American media. You can see it in parts of the business community. If you look at just exactly how it was that Donald Trump kept afloat during all those years when he was bankrupt, he and his sons have said quite openly that part of that was Russians investing in Trump family properties, buying apartments in Trump buildings, using shell companies or anonymously owned companies in order to do that. So they knew a lot of their money was coming from Russia all the time.</t>
+  </si>
+  <si>
+    <t>Well, I think probably, but you can’t be certain about it. I mean, forgive me if I
+just give you some poll numbers, ‘cause they’re more accurate than anything I would like to say. So, at the moment, you’ve got 65% supports the continued military aid, 66% of continued economic support, so that sounds pretty solid,
+and 40% say continue support at the current level, as opposed to 29% curtail, so that’s not too bad. This is the Chicago…        …Council on Foreign Relations poll, which was last month, so it’s a – relatively, you know, recent. I think the one thing that is possibly concerning for them is
+that support varies depending on whether they think the Ukrainians are winning. So, as long as people think there’s progress, they will continue to back it, but I think if you get this sense that the thing is getting bogged down, and the
+expense is endless and the human expense is endless, then the kind of pressures that Kim refers to may increase As for the change in Congress, I mean, obviously, you’ve got this, I don’t mind
+calling them lunatic fringe, who made such trouble for Kevin McCarthy, and a lot of them are associated with a much more hostile attitude to aiding Ukraine,
+some of them actually quite pro-Putin. But they’re – they are a minority, and if you look at the key committees, Repub – chaired by Republicans, pre-Mike’s
+chair, the Intelligence, Defense, and Foreign Affairs Committee, in fact, there are more men called Mike chairing committees than women chairing any committee. But anyway the...              …three Mikes are all pretty hawkish, and so more inclined to go with what the Biden administration policy is than the lunatic fringe of the Republican Party.
+So, you know, I don’t think that the Ukrainians can be complacent about it, but I think they’ve got probably a few more months, and I think that they’re aware of
+the narrative. It’s quite interesting, there’s a, sort of, tension in the way the
+Ukrainians talk about the war. I’ve met a bunch of them recently. So, they will say, “We’re going to win,” and I think they know they need to say that for their own morale but also keep up Western support, but, simultaneously, they also
+have to say, “But if you don’t give us tanks, we might lose.” So, they’ve got this, sort of, dual message that they’re trying to balance.</t>
+  </si>
+  <si>
+    <t>I just think that the – I do think that America is in a more, sort of, radical place than the Europeans at the moment on this, and I think that the
+decoupling is, kind of, a bipartisan policy now. There’s a question about how far you can go and how fast, and some of this is driven by an assessment of where
+China is. I think the Americans, the administration has decided that China has
+essentially decided to displace the United States as the world’s pre-eminent power and they’re not going to allow that, particularly because China is an authoritarian country and – etc., etc.
+I think that there is a slight danger for them that the politics run away with them, and the – and take them into an even more radical place. I mean, talking to people in Congress, they say, “The one thing that Democrats and Republicans can agree on is bashing China, and it’s not going to stop,” as one of them put it, “because the politics is too good.” They – so they – they’re all there and that can, kind of, radicalise the way – the situation in a way that the administration may not want. And a last thing just on Ukraine parallels, I mean, listening to what Kim was saying. I think that another thing that’s a variable is that – us trying to get into the Chinese heads, which is kind of impossible, because Xi runs that place, and
+in the end, it’s his decision in the way that Putin’s – it was Putin’s decision to go into Ukraine. But one variable is that they may think that, you know, America’s depleted a lot of its weaponry, actually, supplying to Ukraine, that they may not  actually have the wherewithal to support…</t>
+  </si>
+  <si>
+    <t>I’m not terribly optimistic and the reasons are fairly clear. If you’re of a ‘liberal’ disposition both in economics and in politics, we had a very good 30 years from 1978—the opening of China, and Thatcher and Reagan reinvigorating the West. That was followed by democratisation, which is commonly and understandably associated with the fall of the Berlin Wall. Things were going in the right direction. We also saw state control of the economy going out of fashion and it seemed there was a formula that worked and was going global—a combination of political and economic freedoms advancing. But, significantly, 1989 was the year not only of the Berlin Wall but also of Tiananmen Square, where China didn’t take the same route yet it has since been successful beyond anyone’s imagining, despite being a one-party state. Then the Western system had its own seismic economic shock in 2008 from which we never fully recovered, and in the aftermath we’ve had a rise of illiberal politics, which Donald Trump exemplifies in the West. But it’s not just Trump. If you look across Europe, the AfD is the official opposition in the German parliament, Brexit is here in the UK, France has the gilet jaunes, Spain is threatening to break up, democracy is under threat in Poland and Hungary, Russia has gone backwards to become a menacing player in the international system. And strongman politics is back in fashion, not just in China but even in India, the Philippines and Brazil, and along with it a rise in economic nationalism, which is potentially dangerous. So no, I don’t think it’s a particularly great period. The question is how long it will last. The other thing that makes me anxious is actually the environment. The sense that we’ve failed on climate change, that the goals aren’t realistic or probably enough in themselves. And with things like species extinction and so on—I see you had one in Australia very recently—it’s very alarming. The only thing I would say, though, is that one can misread these things. I was actually talking to my mother about it recently—when I was born in ’63 she had a strong sense that I had come into a world gone wrong because the Cuban missile crisis happened just a year before, everyone was terrified of nuclear Armageddon around the corner and things looked very dangerous. And yet, I’ve lived in a very blessed era of peace, prosperity, steadily expanding freedom and reduction of poverty around the world. So you can have a snapshot of a time and think, ‘Oh well, it’s obviously terrible.’ But we may be wrong. I hope so!</t>
+  </si>
+  <si>
+    <t>The prospect that Trump will return to the White House raises some pretty profound questions for countries such as Australia and Britain that look to the US as their most important partner and as the leader of the western alliance. Some politicians on the right in Britain, including former prime ministers Boris Johnson and Liz Truss, have already all but endorsed Trump. Australian Conservatives have so far been much more cautious. So when I sat down with Malcolm Turnbull in his office in Sydney, I began our conversation by asking him how the Australian right would react if Trump won the US election.</t>
+  </si>
+  <si>
+    <t>That was Ursula von der Leyen, the current president of the European Commission, making the case for the EU to act as a geopolitical force. That feels more necessary than ever in the era of the Ukraine war. Like all commission presidents, von der Leyen’s often measured against Jacques Delors, who is still fondly remembered in Brussels as the most dynamic and successful European Commission president ever.</t>
+  </si>
+  <si>
+    <t>I mean, it’s a very complex story because in some areas you can point to China making very rapid progress, such as electric vehicles. And then another one you didn’t mention but that’s making headlines is that they seem to be advancing in chip technology despite American efforts to restrain them. And yet there are these economic problems. So I suppose one of the things that gives peak China its force is people say property bubbles, they are very destructive when they begin to unwind. They remember what happened with Japan. And that really was the beginning of the end of the sort of Japan-is-gonna-take-the-world-over story. And then, of course, the financial crisis in America in 2008 — that was the unwinding of a property bubble.</t>
+  </si>
+  <si>
+    <t>Please use the Modern Germany is not immune to the dangers of political extremism. In 2020, a crowd of anti-vaxxers and assorted extremists attempted, unsuccessfully, to storm the Reichstag. In the wake of the refugee crisis of 2015, when Merkel allowed over 1m migrants and refugees into the country, many observers, myself included, predicted a surge in political extremism in Germany. The atmosphere in the 2017 election was often ugly. The extreme-right Alternative for Germany party won a large bloc of seats in parliament. But in the most recent election, the political extremes of right and left both lost votes. The centre has not only held in Germany, it has strengthened. The AfD is still strong in eastern Germany, but it is further away than ever from national power.</t>
+  </si>
+  <si>
+    <t>One difference between Germany and other large western nations is that high levels of immigration have not radicalised the mainstream right. Trump came to power on the back of a promise to build the wall. Johnson won the Brexit referendum on a pledge to “take back control” of Britain’s borders and laws — particularly borders. In France, Michel Barnier, who is campaigning for the centre-right’s nomination for the French presidency, has called for a moratorium on all immigration from outside the EU. Éric Zemmour, the rising star of the far right, threatens to throw 2m people out of the country. The German government, by contrast, continues to make the case for immigration. In August, the head of Germany’s federal labour agency said that the ageing of the country’s workforce means that Germany needs to let in 400,000 new immigrants every year — arguing that without this level of migration, “there will be a shortage of skilled workers everywhere”. Only the AfD condemned the idea outright.</t>
+  </si>
+  <si>
+    <t>In recent years, strongman politics has flourished all over the world. It is no longer confined to authoritarian states such as China and Russia. As Mr Trump, Mr Orban and Mr Bolsonaro have all demonstrated, even democracies can elect leaders who revel in a cult of personality and delight in their willingness to trample over political and legal norms. The strongman playbook is now well-established. Its key features include a willingness to bend or break the law; to fire public servants if they fail to demonstrate loyalty; and to delight supporters with “politically incorrect” comments on race and sex. The strongmen justify their contempt for liberal niceties by claiming that they represent the people against a corrupt and out-of-touch political class.</t>
+  </si>
+  <si>
+    <t>Fabled British moderation and respect for fair play could be weaker than often thought. A recent survey for the Hansard Society suggested that 54 per cent of people agree that “Britain needs a strong leader willing to break the rules”; just 23 per cent disagreed. In recent days, Mr Johnson has repeatedly demonstrated his willingness to break the rules. His decision to prorogue parliament for the longest period since 1945 was described as an “offence against the democratic process” by John Bercow, the Speaker of the House of Commons. Mr Johnson and his allies are now seeking to remove Mr Bercow by breaking the convention that the Speaker is allowed to run for his parliamentary seat unopposed. Mr Johnson’s decision to expel 21 MPs from his own Conservative party for opposing his Brexit plans is straight out of the strongman manual, with its emphasis on loyalty to the leader. The prime minister is also hinting heavily that he is prepared to break the law, rather than obey parliament and request an extension to Britain’s membership of the EU. As soon as he can force an election, Mr Johnson clearly intends to run as the tribune of the people against parliament.</t>
+  </si>
+  <si>
+    <t>The Johnson team are likely to drop any remaining pretence to cultural liberalism and instead will follow the international populist playbook, campaigning on law and order, immigration and “culture war” issues. The Johnson campaign is already (literally) positioning their man as a strongman figure. Last week, the prime minister appeared against a backdrop of police cadets, giving a speech that was Trump-like in both its setting and its rambling incoherence.
+Ironically, Mr Johnson used to argue that reverence for parliamentary democracy is what has kept Britain safe from despotism. In his biography of Winston Churchill, he quotes his idol’s statement about the chamber of the House of Commons: “This little place is what makes the difference between us and Germany. It is in virtue of this that we shall muddle through to success and for lack of this Germany’s brilliant efficiency leads her to final disaster.” However, Mr Cummings, Mr Johnson’s most-influential adviser, is fascinated by Otto von Bismarck, the leader who unified Germany and who was famous for his contempt for parliamentarianism. It was Bismarck who notoriously remarked that the “great questions of the day will not be settled by means of speeches and majority decisions . . . but by iron and blood”. A similar yearning for “strong leadership” is once again spreading around the world. Even Britain could yet succumb to it. But if the British political system has the strength to reject the virus of strongman politics, it will do a service to democracy around the world.</t>
+  </si>
+  <si>
+    <t>There has been some tut-tutting that Biden should not be saying such things. The argument is that by publicly discussing nuclear war, the US president is playing into Vladimir Putin’s hands. Russia’s president and his army are in an increasingly desperate situation. Western intelligence services believe that the Russians are running out of ammunition and that this has only recently become apparent to Putin. By threatening to use nuclear weapons, Putin is using one of his remaining tools — trying to terrify Ukraine and its western backers into concessions. Biden, however, is not alone in talking publicly about the nuclear threat. Volodymyr Zelenskyy has also said that Putin is psychologically preparing the Russian people for the use of nuclear weapons. As Ukraine’s leader put it, this is “very dangerous”.
+With the dangers of escalation mounting — alongside the death toll — the absence of serious diplomatic efforts to end the conflict is both striking and worrying.</t>
+  </si>
+  <si>
+    <t>For some of Ukraine’s most ardent backers, even talking about diplomacy amounts to appeasement. Their argument is that the only acceptable and realistic way to end the war is for Putin to be defeated. This is fine as a statement of principle, but not hugely helpful in practice.
+Of course, it would be best if Russia were comprehensively defeated and a new penitent government came to power in Moscow — committed to paying war reparations and putting Putin on trial for war crimes. But that outcome, while just about within the range of possibilities, remains a very long-odds bet. For the foreseeable future it is much more likely that, as his options shrink, the Russian leader and his entourage will escalate further.</t>
+  </si>
+  <si>
+    <t>The big mistake is to believe that diplomacy is an alternative to strong military support for Ukraine. On the contrary, the two approaches should go hand in hand and be complementary to each other. Giving the Ukrainians the military help they need to advance on the battlefield puts them in the best possible position to secure their aims in an eventual peace settlement. But diplomacy should not simply be deferred to some point in the future. It needs to be going on at the same time as the fighting. And the Ukrainians have to be involved and consulted at every step.</t>
+  </si>
+  <si>
+    <t>We have basically been living through rising inequality for all or most of the adult life of everyone who's been alive today because inequality starts rising really, depending on how you look at the numbers, in the late '70s or the early '80s. We're talking now about 40 years or more. It's remarkable when you look back at what happened in our economy in the '30s and the '40s and the '50s and even into the '60s and the early '70s. Incomes rose more for the poor and the middle class than they did for the rich. That's something that we almost can't wrap our minds around today. Even before the great victories of the civil rights movement, the Black-white wage gap shrunk and the Black-white life expectancy gap shrunk in the '40s and '50s quite markedly. We got an economy. We got mass prosperity. We got an economy in which 92% of people who were born in 1940 grew up to earn more money than their parents did. Think about that. 92%. It's nearly everybody. It's the vast majority of people who suffered a layoff or who had a health crisis. Many of the people who didn't make more than their parents, they ended up doing okay. They may have grown up as the child of a corporate executive who decided to become a teacher. The up escalator of the US economy was so steep and going so fast that it really just lifted the vast majority of the population.</t>
+  </si>
+  <si>
+    <t>Capitalism still is the best system for lifting living standards around the world. There really is no model of a communist or socialist government creating mass prosperity in the way that we've had it in this country and in the way that Japan and South Korea and Western Europe have had. Capitalism also has predictable excesses.
+Capitalism tends to produce rising inequality over time if left unchecked. Capitalism has these side effects like climate change in which the market doesn't take care of. Under democratic capitalism, you have a government that acknowledges both the great aspects of capitalism and the great downsides of capitalism. For example, it makes sure that workers can join unions. Because if you leave companies and unions basically to fight it out themselves, it's pretty easy for companies to prevent anyone from joining a union. We see Starbucks doing this now, right? There are several Starbucks stores where people have voted to join the union. Starbucks somehow figures out how to make sure that those people and the union organizers don't have jobs there or they assign them to really miserable shifts. The government needs to step in and basically say, "Hey, workers should be able to join unions." If you don't have an economy where they can, you have massive inequality. The government also needs to tax really high incomes and wealth to prevent inequality from coming together. An excerpt of my book ran in The New York Times over the weekend and The Times magazine. One of the other things that I described in there that the government needs to do is it needs to build roads and it needs to build schools and it needs to invest in science. That shouldn't be a partisan point. There is no president over the last 100 years who did more to increase US investment in future-oriented research than Dwight Eisenhower. This doesn't need to be super expensive. You don't have to believe in a very big government to believe that the government should do these things. That's democratic capitalism. Even with all the injustices in American society and all of our problems in the '40s and the '50s and the '60s and into the '70s, that is what we had. It is why living standards rose so much for so many people.</t>
+  </si>
+  <si>
+    <t>For a long time, the US believed in the idea of mass education. Europe said, "Why do we actually need to send our workers to high school?" This was before high school was even universal. "Why do our workers need to learn math? They're just workers." The US said, "No, we're going to try to educate our population broadly with huge inequalities, but nonetheless set out to educate our population broadly." We led the world in producing high school graduates and then we led the world in producing college graduates, thanks to the GI Bill. Then the rest of the world said, "Wait a second. That American approach to mass education, that seems to work. It produces hugely productive workforces. It reduces inequality." Around the same time over the last few decades, we actually lost faith in our own approach. We've made it harder for people to go to college. We've starved community colleges and four-year colleges that educate masses of people like City College here in New York for resources. It's really a sad story because this is, in many ways, an American idea. It's core to the American Dream, Brian. We're going to educate everyone. Now, other countries have passed us by in terms of having the world's most educated population.</t>
+  </si>
+  <si>
+    <t>It’s become possible to use social media or state media or, far right media to characterize the protests for the rest of the country as some kind of elite sport, you know, far left women wearing fur coats, waving their dollar bills in the air, they don’t really represent you. They’ve been infected by the LGBT virus, you know, and that’s by the way, a phrase that is used in Poland. They’re not really us. They don’t represent we, the nation. They’re not part of who we define ourselves as. They’re some kind of other outer different group.</t>
+  </si>
+  <si>
+    <t>All of the people who are leading the Polish ruling party were part of a democratic system for the past two decades. Some of them were even leaders of the anti-communist opposition 30 years ago or they were certainly present in it. So, these are people who were theoretically pro-democracy and some of them were people who helped build and construct the current free Poland that we have today. And yet, they began to see the advantage of returning Poland on an autocratic path. And if that can happen there, then I think it can happen anywhere.</t>
+  </si>
+  <si>
+    <t>Nationalist Russia and Theocratic Iran and Maoist China and Bolivarian Venezuela, and, I don’t know, Collective Farm Boss Belarus don’t share common texts. They don’t share common ideas of what is a good society. They don’t have a common foreign policy. They have a very, very different sense of the world. But they do have one common interest, which is all of them have the same political domestic interest in crushing or restraining their own democratic opposition. That is one of the ways in which they now cooperate internationally. They have a common interest in crushing democracy activism wherever it appears. They dislike the language of democracy. They dislike the language of human rights. They push back against it in the UN and they even seem willing to help one another crush their respective movements. So, you saw the Russian very open interference in Belarus in 2020 when the Belarussian opposition looked very close to winning. The Russians sent in reinforcements. Not just, I should say, police reinforcements, but also Russian journalists to run Belarussian state media to do the propaganda differently.</t>
+  </si>
+  <si>
+    <t>There’s much greater consciousness now of what it means to do deals with a state company in an autocratic state. But it would’ve helped to have some of that earlier. I also think more broadly there are just better rules about property and anonymous companies that would help everybody. I don’t know why anybody needs to have an anonymous company for any reason really given the amount of harm that can be done. A lot of it is just ordinary people hiding their money in order not to pay taxes. It’s not all evil people in faraway places, but putting controls on that I think would be good for the transparency and the health of the whole economy. So, there’s some changes, particularly to the financial system that we could do that would restrict the ability of foreign kleptocrats to use our financial system that would actually restrict the use of American hurdles to use the American financial system. So, I would appreciate more being done in that direction too.</t>
+  </si>
+  <si>
+    <t>I actually dislike this idea that we’re going to separate the world into democracies and autocracies, not least because it immediately creates questions around countries like India, which defines itself as a democracy which holds elections, but increasingly looks more and more like a one-party state where one party is so dominant that it can control the media and affect the civil service and the judges and so on. There are a number of countries like that, India, Turkey, much less important Hungary, but they exist out there. There are other countries that are somehow in the middle for other reasons or for historical reasons. They don’t like being aligned and so I would rather not talk in those terms. I do think that rather than having a Democracy Summit where all the democracies talk to each other, supposedly, I would rather focus on particular issues. For example, kleptocracy – there is a group of 50 countries you could get together and who could say, ‘This is harming us. This is hurting our political systems. It’s bad for our financial systems. It’s distorting to our property markets. What can we do about it?’ I’d rather see foreign policy focusing on those issues rather than trying to create Cold War style block politics. I suppose the one area where this has become very sensitive and difficult is over the question of sanctions on Russia, because it would certainly help the cause of Ukraine. It would help the cause of… Actually, it’s not even really about democracy. It’s just about preserving borders and maintaining stability in Europe. If Russia would lose and if Russia would feel a greater economic impact from the war… One of the reasons that it doesn’t is that there’s a huge sanction busting operation. Truckloads of stuff going through Turkey and Georgia. The Chinese are helping them get around some of the rules on electronics and so on. It seems to me there could be better or more directed diplomacy focused on that issue.
+But I’m really not interested in getting everybody who’s a democracy or calls themselves one on exactly the same page on all issues. I don’t think it’s useful to do that. I don’t think we’ll win that argument and I don’t see the point of it. I would rather, as I said, create coalitions around particular problems. In the case of Russia, there’s a reason why Europe is on board and that’s because Europeans feel directly the security threat from Russia. Clearly, there are other countries that don’t feel that security threat and so we may need a different set of arguments to convince them to go along. Those might even have to be economic arguments.</t>
+  </si>
+  <si>
+    <t>There is a class of people, and I’d say it’s roughly a third of most countries, who are bothered by the cacophony of contradictory voices, who don’t like rapid change, who are uncomfortable with whether it’s social or demographic or economic or informational transformation and who dislike the openness and need to rapidly readjust that you find in the modern world. Sometimes there is a mostly economic component to this. I mean, people who’ve lost their jobs because of the rapid change. Sometimes there’s a social component. People don’t like the way social mores have changed in the last couple of decades. Sometimes people are just overwhelmed by the amount of information they receive on their phones and on their television sets. For those people, the appeal of a single party, a single answer or single leader, homogeneity, unity, a return to some real or imagined previous era when everything was simpler and things were much more predictable… For some people, that’s a very powerful feeling. I mean, I think the word the historian and writer Timothy Snyder – I was recently at an event where he was talking about the significance of predictability versus unpredictability. Autocracy often seeks to create predictability with, of course, the exception of the dictator himself, who gets to be unpredictable. But a lot of people like and prefer predictability They like and prefer people to be unified. There is an autocratic language that appeals to those people.
+So, the idea that automatically everyone wants to be open and everyone wants to be outward looking and everyone wants to be constantly in touch with all different kinds of things and people and opportunities is wrong. Just as I said, there are particular types of politicians and political leaders and their propaganda who understand this and who seek to appeal to those people who are bothered by modernity. That’s a bigger problem than we usually like to think about. So, most people who write for newspapers or who take part in American politics have had for a long time this fundamental assumption that democracy is automatic and everybody agrees about it and everybody wants it to go the same way. The sort of mainstream story that we’ve told ourselves about democracy opening up over the past century after having been something confined to white male landowners, eventually spread to include a much broader definition of who is American and who gets to vote. We assume that’s a positive story, but not everybody does. The backlash against that has taken the form of an autocratic backlash. You know, I’m not just talking about the United States. I could talk about Poland or I could talk about France or I could talk about Germany and lots of other countries where you find a percentage of people who want to hear something very different from that. It’s also important to remember that throughout human history most of the time most people have lived in autocracies. I mean, they were monarchies or they were dictatorships or they were something else. You know, democracy is very rare. It doesn’t usually last very long and it’s easily overthrown by demagogues who appeal to people who don’t like the idea that they have to allow their political opponents to rule for four years before they get a second chance.</t>
+  </si>
+  <si>
+    <t>In a number of countries, there are now anti-democratic parties that would like to change their country’s political system in order never to lose power. In some places that’s become a divisive partisan issue. Yes. I wouldn’t like to say it is always and everywhere, but certainly in some. Poland is a very good example where you have a ruling party that was elected completely democratically and which emerged in a democratic system. Its first election was democratic, but during its years in power, it has tried to alter the political system so that it won’t lose. That is a longer story. It’s to do with altering the judiciary, altering the role of state media, which is very important in Poland. It’s the media that about 30% of the country watches. It’s about changing the civil service. It’s about providing funding for sort of fake think tanks and NGOs. I mean, there’s a whole range of things that they do and maybe moving right up to cheating and altering the election results. We don’t know yet. There’s an election in October, but I wouldn’t be very surprised if they try and do it. But those were originally democratic parties. So, originally the battle between that party and the three or four others in the Polish system wasn’t about democracy, but it has over time become about democracy. Now it is.</t>
+  </si>
+  <si>
+    <t>Internally, Polish politics are as ugly as they ever were and getting worse. So, the impression created by the War in Ukraine that Poland is fighting for democracy is true up to a point. It’s true that Poles are fighting for Ukraine or they’re helping Ukraine and helping Ukrainian refugees. But that’s partly because it’s popular in Poland. The political system is declining rapidly. At the moment, many of the leading Polish opposition figures are under criminal investigation, for example. The leader, in fact, Donald Tusk, who’s the leader of the largest party, is under a completely bogus, fake investigation. So, while it’s true that they’re not seeking to join Russia, that doesn’t mean that they’ve created a milder system at home. I also wonder under different circumstances, if Russia hadn’t invaded Ukraine, what their policy towards Russia would be. But anyway, that’s just speculation.</t>
+  </si>
+  <si>
+    <t>Because of the war in Ukraine, people are more afraid and fear often makes people prefer autocrats. So, it remains to be seen. We’re a few months away still from the election, but these things don’t work the way you imagine. I mean, emotionally people are more frightened. They’re more anxious. They may prefer some system that they know to some political change, but I don’t know. Right now, if the elections were held tomorrow, the opposition would win. But as I said, we’re still some months away.</t>
+  </si>
+  <si>
+    <t>Right now, many policies having to do with the war on terror are unchanged. Unchanged, from the Bush administration, whether it's wiretapping or the getting rid of Greg Craig from the counsel's office really worrying. I'm concerned about Iran becoming a nation of irrational leaders, with nuclear weapons. And I don't see that we're able to—we're not doing much about it. I am not pro-bombing Iran, I am certainly not pro-Israel bombing Iran, but the capacity to get anywhere near serious sanctions to dissuade Iran from doing this is nowhere.</t>
   </si>
 </sst>
 </file>
@@ -655,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11DC9FB-CD98-44B3-8C45-D5DEA083BED1}">
-  <dimension ref="A1:FC1"/>
+  <dimension ref="A1:GR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="CV1" sqref="CV1"/>
+    <sheetView tabSelected="1" topLeftCell="GK1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="GR1" sqref="GR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +770,7 @@
     <col min="55" max="16384" width="15.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" s="2" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:200" s="2" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -913,61 +1015,61 @@
         <v>1</v>
       </c>
       <c r="CD1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="CE1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="CG1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="CI1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="CK1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="CM1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="CO1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="CQ1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="CS1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="CU1" s="2">
-        <v>1</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="CW1" s="2">
         <v>0</v>
@@ -1105,28 +1207,169 @@
         <v>0</v>
       </c>
       <c r="EP1" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="EQ1" s="2">
         <v>0</v>
       </c>
+      <c r="ER1" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="ES1" s="2">
         <v>0</v>
       </c>
+      <c r="ET1" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="EU1" s="2">
         <v>0</v>
       </c>
+      <c r="EV1" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="EW1" s="2">
         <v>0</v>
       </c>
+      <c r="EX1" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="EY1" s="2">
         <v>0</v>
       </c>
+      <c r="EZ1" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="FA1" s="2">
         <v>0</v>
       </c>
+      <c r="FB1" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="FC1" s="2">
         <v>0</v>
+      </c>
+      <c r="FD1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="FE1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="FG1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="FI1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="FK1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="FM1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="FO1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="FQ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="FS1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="FU1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="FW1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="FY1" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="GA1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GB1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="GC1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GD1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="GE1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="GG1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="GI1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GJ1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="GK1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GL1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="GM1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GN1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="GO1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="GQ1" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
